--- a/BDD modélisation/DAHOUET Dico 0.2.xlsx
+++ b/BDD modélisation/DAHOUET Dico 0.2.xlsx
@@ -651,447 +651,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="0.28515625" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="I1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I8" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I9" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I10" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I14" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I16" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I17" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I18" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I19" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I20" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I21" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I22" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I23" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I24" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I25" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I26" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I27" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I28" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I29" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I30" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I31" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K31" t="s">
+      <c r="C31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I32" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I34" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I35" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I36" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I37" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I38" s="2" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I39" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I40" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I41" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="9:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="I42" s="2" t="s">
+    <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="9:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="I43" s="2" t="s">
+    <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I44" s="2" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I45" s="2" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I46" s="2" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="9:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="I47" s="2" t="s">
+    <row r="47" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I48" s="2" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I49" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I50" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I51" s="2" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>53</v>
       </c>
     </row>
